--- a/Sprint 3 Admin/Sprint3HourTracker.xlsx
+++ b/Sprint 3 Admin/Sprint3HourTracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Est.</t>
   </si>
@@ -24,48 +24,9 @@
     <t>Total Remaining</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Katie</t>
-  </si>
-  <si>
-    <t>Adrian</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Colin</t>
-  </si>
-  <si>
-    <t>Casey</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Worked</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Personal Hour Tracker</t>
-  </si>
-  <si>
     <t>Total Spent</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Burndown</t>
-  </si>
-  <si>
-    <t>Initial</t>
-  </si>
-  <si>
     <t>Move forward</t>
   </si>
   <si>
@@ -81,12 +42,6 @@
     <t>Cadet</t>
   </si>
   <si>
-    <t xml:space="preserve">K-5 </t>
-  </si>
-  <si>
-    <t>Middle School</t>
-  </si>
-  <si>
     <t>High School</t>
   </si>
   <si>
@@ -124,6 +79,18 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle &amp; K-5 </t>
+  </si>
+  <si>
+    <t>ML paws, paws</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -174,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,217 +165,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -422,44 +182,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,9 +270,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Est.</c:v>
                 </c:pt>
@@ -544,33 +290,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2-Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:f>Sheet1!$B$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,11 +337,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61319040"/>
-        <c:axId val="55537664"/>
+        <c:axId val="216690688"/>
+        <c:axId val="216692608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61319040"/>
+        <c:axId val="216690688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55537664"/>
+        <c:crossAx val="216692608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -626,7 +378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55537664"/>
+        <c:axId val="216692608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61319040"/>
+        <c:crossAx val="216690688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -698,7 +450,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 2 Burndown</a:t>
+              <a:t>Sprint 3 Burndown</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -708,6 +460,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -721,11 +474,11 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$31:$G$31</c:f>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Initial</c:v>
+                  <c:v>Est.</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21-Oct</c:v>
@@ -741,16 +494,40 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2-Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$44:$G$44</c:f>
+              <c:f>Sheet1!$B$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -766,11 +543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55563776"/>
-        <c:axId val="55565696"/>
+        <c:axId val="216725376"/>
+        <c:axId val="222171136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55563776"/>
+        <c:axId val="216725376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,13 +569,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55565696"/>
+        <c:crossAx val="222171136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55565696"/>
+        <c:axId val="222171136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,13 +607,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55563776"/>
+        <c:crossAx val="216725376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -856,16 +635,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -886,16 +665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1204,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,25 +997,25 @@
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="J1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,20 +1037,16 @@
       <c r="H2" s="2">
         <v>42678</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>31</v>
+      <c r="J2" s="13"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
@@ -1282,227 +1057,224 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="e">
-        <f>F3+E6/6+#REF!/6+G10+G4+G5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="7" t="e">
-        <f>L3/K3</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="e">
-        <f>G3+F7+G7+#REF!+E6/6+#REF!/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="7" t="e">
-        <f t="shared" ref="M4:M11" si="0">L4/K4</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1" t="e">
-        <f>SUM(D17:G17)/2+E6/6+#REF!/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="e">
-        <f>SUM(D17:G17)/2+E6/6+#REF!/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>10</v>
-      </c>
-      <c r="L7" s="1" t="e">
-        <f>#REF!+#REF!+E6/6+#REF!/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="J10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="12">
-        <v>12</v>
-      </c>
-      <c r="L10" s="12" t="e">
-        <f>F12+G12+E11+E6/6+#REF!/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="9">
-        <f>SUM(K3:K10)</f>
-        <v>64</v>
-      </c>
-      <c r="L11" s="9" t="e">
-        <f>SUM(L3:L10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1510,11 +1282,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1522,11 +1296,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1534,39 +1310,59 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1576,11 +1372,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1588,67 +1386,78 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>34</v>
+      <c r="A23" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>35</v>
+      <c r="A24" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>29</v>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1660,302 +1469,358 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <f>SUM(C3:C17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
-        <f>SUM(D3:D17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <f>SUM(E3:E17)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="1">
-        <f>SUM(F3:F17)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="1">
-        <f>SUM(G3:G17)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="1">
-        <f>SUM(B3:B17)</f>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:G29" si="0">SUM(C3:C28)</f>
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H29" s="1">
+        <f>SUM(H3:H28)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <f>SUM(B3:B18)</f>
         <v>75</v>
       </c>
-      <c r="C27" s="1">
-        <f>B27-C26</f>
-        <v>75</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" ref="D27:G27" si="1">C27-D26</f>
-        <v>75</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C30" s="1">
+        <f>B30-C29</f>
+        <v>63</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:H30" si="1">C30-D29</f>
+        <v>51.5</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="F27" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="G27" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="2">
-        <v>42664</v>
-      </c>
-      <c r="D31" s="2">
-        <v>42668</v>
-      </c>
-      <c r="E31" s="2">
-        <v>42670</v>
-      </c>
-      <c r="F31" s="2">
-        <v>42674</v>
-      </c>
-      <c r="G31" s="2">
-        <v>42676</v>
-      </c>
-      <c r="H31" s="2">
-        <v>42678</v>
+        <v>24.5</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="1">
-        <v>30</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
